--- a/relacao_contratos.xlsx
+++ b/relacao_contratos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Registro de preços para futura e eventual aquisição de mobiliários diversos para equipar as unidades de saúde deste município</t>
   </si>
@@ -39,6 +39,45 @@
   </si>
   <si>
     <t>175/2023</t>
+  </si>
+  <si>
+    <t>Registro de preço para futura e eventual contratação de empresa especializada na realização de exames patológicos junto a Secretaria de Saúde deste município</t>
+  </si>
+  <si>
+    <t>147/2023</t>
+  </si>
+  <si>
+    <t>063/2023</t>
+  </si>
+  <si>
+    <t>Contratação de empresa com profissional médico na área de ortopedia, destinado à prestação de serviços junto a Secretaria Municipal de Saúde e Fundação Coronel João de Almeida, neste município</t>
+  </si>
+  <si>
+    <t>190/2023</t>
+  </si>
+  <si>
+    <t>081/2023</t>
+  </si>
+  <si>
+    <t>contratação de empresa com profissional cirurgião dentista para prestar serviços em unidades básicas de saúde</t>
+  </si>
+  <si>
+    <t>161/2023</t>
+  </si>
+  <si>
+    <t>069/2023</t>
+  </si>
+  <si>
+    <t>Contratação de empresa com profissional médico especializado na área de cardiologia, para realização de consultas em unidade de saúde deste município e realização de procedimentos em consultório clínico da contratada</t>
+  </si>
+  <si>
+    <t>139/2023</t>
+  </si>
+  <si>
+    <t>061/2023</t>
+  </si>
+  <si>
+    <t>15/08/2023</t>
   </si>
 </sst>
 </file>
@@ -74,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +428,74 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45159</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45230</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45184</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/relacao_contratos.xlsx
+++ b/relacao_contratos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\studys\python\gerpar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,66 +19,537 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Registro de preços para futura e eventual aquisição de mobiliários diversos para equipar as unidades de saúde deste município</t>
-  </si>
-  <si>
-    <t>073/2023</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>04/10/2023</t>
-  </si>
-  <si>
-    <t>175/2023</t>
-  </si>
-  <si>
-    <t>Registro de preço para futura e eventual contratação de empresa especializada na realização de exames patológicos junto a Secretaria de Saúde deste município</t>
-  </si>
-  <si>
-    <t>147/2023</t>
-  </si>
-  <si>
-    <t>063/2023</t>
-  </si>
-  <si>
-    <t>Contratação de empresa com profissional médico na área de ortopedia, destinado à prestação de serviços junto a Secretaria Municipal de Saúde e Fundação Coronel João de Almeida, neste município</t>
-  </si>
-  <si>
-    <t>190/2023</t>
-  </si>
-  <si>
-    <t>081/2023</t>
-  </si>
-  <si>
-    <t>contratação de empresa com profissional cirurgião dentista para prestar serviços em unidades básicas de saúde</t>
-  </si>
-  <si>
-    <t>161/2023</t>
-  </si>
-  <si>
-    <t>069/2023</t>
-  </si>
-  <si>
-    <t>Contratação de empresa com profissional médico especializado na área de cardiologia, para realização de consultas em unidade de saúde deste município e realização de procedimentos em consultório clínico da contratada</t>
-  </si>
-  <si>
-    <t>139/2023</t>
-  </si>
-  <si>
-    <t>061/2023</t>
-  </si>
-  <si>
-    <t>15/08/2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="175">
+  <si>
+    <t>002/2023</t>
+  </si>
+  <si>
+    <t>220-100/2023</t>
+  </si>
+  <si>
+    <t>AGUIAR &amp; RABELO ASSISTENCIA MEDICA E ODONTOLOGICA LTDA</t>
+  </si>
+  <si>
+    <t>18.742.464/0001-39</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA PARA DISPONIBILIZAÇÃO DE PROFISSIONAL MÉDICO CIRURGIÃO GERAL A REALIZAR ATENDIMENTO JUNTO A SECRETARIA MUNICIPAL DE SAÚDE E FUNDAÇÃO CORONEL JOÃO DE ALMEIDA.</t>
+  </si>
+  <si>
+    <t>008/2023</t>
+  </si>
+  <si>
+    <t>010-003/2023</t>
+  </si>
+  <si>
+    <t>CONSORCIO INTERMUNICIPAL MULTIFINALITARIO DA AREA MINEIRA DA SUDENE</t>
+  </si>
+  <si>
+    <t>21.505.692/0001-08</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE REPASSE FINANCEIRO AO CIMANS DESTINADO À PRESTAÇÃO DE SERVIÇOS EM ASSESSORIA E CONSULTORIA NA ÁREA DA SAÚDE</t>
+  </si>
+  <si>
+    <t>009/2022</t>
+  </si>
+  <si>
+    <t>002-001/2022</t>
+  </si>
+  <si>
+    <t>PROGRAMA NACIONAL DE CONTROLE DE QUALIDADE LTDA</t>
+  </si>
+  <si>
+    <t>73.302.879/0001-08</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA PARA PRESTAÇÃO DE SERVIÇOS DE CONTROLE DE QUALIDADE EXTERNO EM ANÁLISES CLÍNICAS NAS ÁREAS DE BIOQUÍMICA, HEMATOLOGIA, URINÁLISE, IMUNOLOGIA, PARASITOLOGIA E EDUCAÇÃO CONTINUADA DO PROGRAMA BÁSICO NO LABORATÓRIO MUNCIPAL DE ANÁLISES CLÍNICAS DA SECRETARIA DE SAÚDE DESTE MUNICÍPIO, CONFORME RDC 302/2005 DA AVISA - AGÊNCIA NACIONAL DE VIGILÂNCIA SANITÁRIA</t>
+  </si>
+  <si>
+    <t>023/2021</t>
+  </si>
+  <si>
+    <t>010/001/2021</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO À ESTRATÉGIA DE SAÚDE DA FAMÍLIA NESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>028/2022</t>
+  </si>
+  <si>
+    <t>017/009/2022</t>
+  </si>
+  <si>
+    <t>WSILVA SERVICOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>42.499.295/0001-32</t>
+  </si>
+  <si>
+    <t>032/2022</t>
+  </si>
+  <si>
+    <t>014/007/2022</t>
+  </si>
+  <si>
+    <t>ANA PAULA FREITAS ALMEIDA</t>
+  </si>
+  <si>
+    <t>41.099.287/0001-36</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL CIRURGIÃO DENTISTA PARA PRESTAR ASSISTÊNCIA ODONTOLÓGICA EM UNIDADE BÁSICA DE SAÚDE NESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>046/2021</t>
+  </si>
+  <si>
+    <t>032/012/2021</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL ODONTÓLOGO DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO AO PROGRAMA DE SAÚDE BUCAL DESTE MUNICÍPIO.</t>
+  </si>
+  <si>
+    <t>048/2021</t>
+  </si>
+  <si>
+    <t>033/013/2021</t>
+  </si>
+  <si>
+    <t>NECC - NUCLEO ESP. EM CARDIOLOGIA E CIR. CARD. LTDA</t>
+  </si>
+  <si>
+    <t>11.814.539/0001-09</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO ESPECIALIZADO EM ANGIOLOGIA DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO A UNIDADE MISTA DE SAÚDE E A FUNDAÇÃO CORONEL JOÃO DE ALMEIDA DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>058/2022</t>
+  </si>
+  <si>
+    <t>040/019/2022</t>
+  </si>
+  <si>
+    <t>ODONTONORTE EQUIPAMENTOS E SERVICOS MEDICO-ODONTOL LTDA</t>
+  </si>
+  <si>
+    <t>25.220.682/0001-79</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE MANUTENÇÃO PREVENTIVA E CORRETIVA COM FORNECIMENTO E APLICAÇÃO DE PEÇAS EM EQUIPAMENTOS ODONTOLÓGICOS, INSTALADOS NAS UNIDADES DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>061/2022</t>
+  </si>
+  <si>
+    <t>045/021/2022</t>
+  </si>
+  <si>
+    <t>MARRA MEDICINA PREVENTIVA E ASSISTENCIAL LTDA - ME</t>
+  </si>
+  <si>
+    <t>11.495.922/0001-33</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO CLÍNICO GERAL DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO À SECRETARIA DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>063/2022</t>
+  </si>
+  <si>
+    <t>046/022/2022</t>
+  </si>
+  <si>
+    <t>CLINICA MEDICA ULTRAIMAGENS LTDA</t>
+  </si>
+  <si>
+    <t>09.487.491/0001-11</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO DESTINADOS A REALIZAÇÃO DE CONSULTAS MÉDICAS E TRATAMENTOS DE LEISHMANIOSE TEGUMENTAR E VISCERAL DE PACIENTES ENCAMINHADOS PELAS UNIDADES DE SAÚDE DA FAMÍLIA DESTE MUNICÍPIO PRESTAÇÃO DE SERVIÇOS JUNTO À ESTRATÉGIA DE SAÚDE DA FAMÍLIA NESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>076/2020</t>
+  </si>
+  <si>
+    <t>054/001/2020</t>
+  </si>
+  <si>
+    <t>RLV TECNOLOGIA EIRELI</t>
+  </si>
+  <si>
+    <t>20.933.736/0001-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA PARA PRESTAÇÃO DE SERVIÇOS DE DIGITALIZAÇÃO DE DOCUMENTOS COM TRATAMENTO OCR, BEM COMO O FORNECIMENTO DE SOFTWARES, MÃO DE OBRA E EQUIPAMENTOS. </t>
+  </si>
+  <si>
+    <t>078/2022</t>
+  </si>
+  <si>
+    <t>058/027/2022</t>
+  </si>
+  <si>
+    <t>CHAVES E SA SERVICOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>45.942.065/0001-94</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO NA ÁREA DE PEDIATRIA, PARA REALIZAÇÃO DE CONSULTAS AOS USUÁRIOS DO SISTEMA ÚNICO DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>082/2021</t>
+  </si>
+  <si>
+    <t>046/022/2021</t>
+  </si>
+  <si>
+    <t>FABRICIO DOS SANTOS ROCHA</t>
+  </si>
+  <si>
+    <t>40.978.286/0001-07</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL ODONTÓLOGO DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO AO PROGRAMA DE SAÚDE BUCAL  DESTE MUNICÍPIO.</t>
+  </si>
+  <si>
+    <t>087/2020</t>
+  </si>
+  <si>
+    <t>047/028/2020</t>
+  </si>
+  <si>
+    <t>NEXUS FIBRA LTDA</t>
+  </si>
+  <si>
+    <t>28.003.875/0001-66</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE LINK DE ACESSO A INTERNET BANDA LARGA VIA RADIO PARA MANUTENÇÃO DOS SERVIÇOS DOS PSF PROGRAMA SAÚDE DA FAMÍLIA LOCALIZADOS NA ZONA RURAL DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>092/2020</t>
+  </si>
+  <si>
+    <t>059/032/2020</t>
+  </si>
+  <si>
+    <t>INOVAR SALINAS SERVICOS MEDICOS E RADIOLOGICOS LTDA</t>
+  </si>
+  <si>
+    <t>26.636.165/0001-48</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL MÉDICO ESPECIALIZADO EM ORTOPEDIA DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO A UNIDADE MISTA DE SAÚDE  E A FUNDAÇÃO CORONEL JOÃO DE ALMEIDA DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>097/2023</t>
+  </si>
+  <si>
+    <t>095/047/2023</t>
+  </si>
+  <si>
+    <t>SALINAS CDI RM LTDA</t>
+  </si>
+  <si>
+    <t>40.239.401/0001-13</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE CLÍNICA MÉDICA ESPECIALIZADA PARA REALIZAÇÃO DE EXAMES MÉDICOS DE ALTA E MÉDIA COMPLEXIDADE, COM A FINALIDADE DE AMPLIAR O ACESSO À PROCEDIMENTO DE SAÚDE AOS USUÁRIOS DO SISTEMA ÚNICO DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>098/2023</t>
+  </si>
+  <si>
+    <t>RESSONAR IMAGENS MEDICAS LTDA</t>
+  </si>
+  <si>
+    <t>05.899.991/0001-00</t>
+  </si>
+  <si>
+    <t>100/2023</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE RADIODIAGNOSTICO E MEDICINA PRO-VIDA LTDA</t>
+  </si>
+  <si>
+    <t>29.419.296/0001-61</t>
+  </si>
+  <si>
+    <t>100/2022</t>
+  </si>
+  <si>
+    <t>047/023/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA PRESTAÇÃO DE SERVIÇOS DE INSTALAÇÃO DE EQUIPAMENTOS DE RASTREAMENTO/MONITORAMENTO/TELEMETRIA EM VEÍCULOS DA SECRETARIA DE SAÚDE DESTE MUNICÍPIO. </t>
+  </si>
+  <si>
+    <t>101/2023</t>
+  </si>
+  <si>
+    <t>RESSONAR SOLUCOES MEDICAS LTDA</t>
+  </si>
+  <si>
+    <t>15.529.396/0001-36</t>
+  </si>
+  <si>
+    <t>102/2023</t>
+  </si>
+  <si>
+    <t>CDI CLINICA MEDICA LTDA</t>
+  </si>
+  <si>
+    <t>21.710.641/0001-00</t>
+  </si>
+  <si>
+    <t>108/2021</t>
+  </si>
+  <si>
+    <t>SABRINA KARINE PEREIRA SENA</t>
+  </si>
+  <si>
+    <t>28.308.622/0001-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL ODONTÓLOGO DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO AO PROGRAMA DE SAÚDE BUCAL DESTE MUNICÍPIO. </t>
+  </si>
+  <si>
+    <t>109/2022</t>
+  </si>
+  <si>
+    <t>070/033/2022</t>
+  </si>
+  <si>
+    <t>JOAO VITOR DA SILVA OLIVEIRA 16061213670</t>
+  </si>
+  <si>
+    <t>40.244.453/0001-88</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM VEÍCULOS DESTINADOS AO TRANSPORTE DE PACIENTES EM TRATAMENTO DE HEMODIÁLISE QUE PRECISAM SE DESLOCAR DO MEIO RURAL PARA A SEDE DO MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>111/2022</t>
+  </si>
+  <si>
+    <t>TICO MATERIAIS DE CONSTRUCAO E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>43.566.147/0001-56</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM VEÍCULOS DESTINADOS AO TRANSPORTE DE PACIENTES EM TRATAMENTO DE HEMODIÁLISE QUE PRECISAM SE DESLOCAR DO MEIO RURAL PARA A SEDE DO MUNICÍPIO.</t>
+  </si>
+  <si>
+    <t>113/2020</t>
+  </si>
+  <si>
+    <t>072/036/2020</t>
+  </si>
+  <si>
+    <t>AURIA CONSULTORIA MEDICA LTDA</t>
+  </si>
+  <si>
+    <t>32.825.123/0001-58</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE ELABORAÇÃO DE LAUDOS DOS EXAMES MÉDICOS CARDIOLÓGICOS DE HOLTER E MAPA</t>
+  </si>
+  <si>
+    <t>115/2021</t>
+  </si>
+  <si>
+    <t>PALOMA ALMEIDA VIANA</t>
+  </si>
+  <si>
+    <t>40.960.187/0001-90</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL ODONTOLÓGICO DESTINADO A PRESTAÇÃO DE SERVIÇOS JUNTO AO PROGRAMA DE SAÚDE BUCAL DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>117/2021</t>
+  </si>
+  <si>
+    <t>080/002/2021</t>
+  </si>
+  <si>
+    <t>LABORATORIO BARBOSA SILVA LTDA</t>
+  </si>
+  <si>
+    <t>04.907.873/0001-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EXAMES/ PROCEDIMENTOS COM FINALIDADE DIAGNÓSTICA POR ANATOMIA PATOLÓGICA E CITOPATOLÓGICA PARA ATENDER A DEMANDA DOS MUNICÍPIOS, CONFORME PPI/ PROGRAMAÇÃO PACTUADA E INTEGRADA. </t>
+  </si>
+  <si>
+    <t>119/2022</t>
+  </si>
+  <si>
+    <t>077/036/2022</t>
+  </si>
+  <si>
+    <t>FERNANDO LINDENBERG DE SOUZA MORAIS 06359117606</t>
+  </si>
+  <si>
+    <t>26.882.778/0001-65</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DESTINADA A PRESTAÇÃO DE SERVIÇOS NO TRANSPORTE DA EQUIPE DE PSF - PROGRAMA SAÚDE DA FAMÍLIA DE VÁRIAS COMUNIDADE DESTE MUNICÍPIO COM VEÍCULOCAPACIDADE MÍNIMA DE 06 (SEIS) PASSAGEIROS PARA ATENDIMENTO A TODAS AS LOCALIDADES DE  ÁREA  DE ABRANGÊNCIA DE CADA PSF DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>136/2021</t>
+  </si>
+  <si>
+    <t>092/050/2021</t>
+  </si>
+  <si>
+    <t>OS AFONSO SERVICOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>42.438.670/0001-34</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAIS MÉDICOS DESTINADOS A PRESTAÇÃO DE SERVIÇOS JUNTO ÀS UNIDADES DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>138/2023</t>
+  </si>
+  <si>
+    <t>108/051/2023</t>
+  </si>
+  <si>
+    <t>MABEPE CONSULTORIA E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>27.905.863/0001-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA DESTINADA A PRESTAÇÃO DE SERVIÇOS ESPECIALIZADOS DE NÍVEL SUPERIOR NA ÁREA DA SAÚDE, PARA CUMPRIMENTO DAS RESOLUÇÕES ESTADUAIS DE Nº 7784/2021, 7924/2021, 8068/2022 E 7857/2021 E DAS PORTARIAS 411/2022, 3705/2022, 1105/2022 E 1127/2021. </t>
+  </si>
+  <si>
+    <t>177/2022</t>
+  </si>
+  <si>
+    <t>123/055/2022</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA REALIZAÇÃO DE EXAME DE ALTA COMPLEXIDADE EM USUÁRIOS ENCAMINHADOS PELA SECRETARIA MUNICIPAL DE SAÚDE DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>181/2022</t>
+  </si>
+  <si>
+    <t>137/061/2022</t>
+  </si>
+  <si>
+    <t>DIGITEC - COPIADORA E INFORMATICA EIRELI - ME</t>
+  </si>
+  <si>
+    <t>08.760.011/0001-81</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DESTINADA A LOCAÇÃO DE IMPRESSORAS MULTIFUNCIONAIS PARA MANUTENÇÃO DAS DIVERSAS SECRETARIAS DESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>183/2023</t>
+  </si>
+  <si>
+    <t>161/069/2023</t>
+  </si>
+  <si>
+    <t>GIZELLY ANTUNES VIANA</t>
+  </si>
+  <si>
+    <t>44.848.904/0001-47</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL CIRURGIÃO DENTISTA PARA PRESTAR SERVIÇOS EM UNIDADES BÁSICAS DE SAÚDE</t>
+  </si>
+  <si>
+    <t>184/2023</t>
+  </si>
+  <si>
+    <t>185/2023</t>
+  </si>
+  <si>
+    <t>SORRIDENTE SERVICOS ODONTOLOGICOS LTDA</t>
+  </si>
+  <si>
+    <t>45.440.357/0001-29</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAL CIRURGIÃO DENTISTA PARA PRESTAR SERVIÇOS EM UNIDADES BÁSICAS DE SAÚDE.</t>
+  </si>
+  <si>
+    <t>186/2023</t>
+  </si>
+  <si>
+    <t>ERCLINIC SERVICOS ODONTOLOGICOS LTDA</t>
+  </si>
+  <si>
+    <t>26.881.807/0001-74</t>
+  </si>
+  <si>
+    <t>213/2021</t>
+  </si>
+  <si>
+    <t>114/059/2021</t>
+  </si>
+  <si>
+    <t>ARAUJO SERVICOS E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>27.995.066/0001-15</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DESTINADO A PRESTAÇÃO DE SERVIÇOS COM CAMINHÃO PIPA 02 EIXOS, COM CAPACIDADE MÍNIMA 8.000 LITROS DE ÁGUA EM ATENDIMENTO À POPULAÇÃO, NA DISTRIBUIÇÃO DE ÁGUA POTÁVEL E AMPLIAÇÃO DA SAÚDE</t>
+  </si>
+  <si>
+    <t>252/2021</t>
+  </si>
+  <si>
+    <t>141/067/2021</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA COM PROFISSIONAIS CIRURGIÕES DENTISTAS PARA PRESTAR ASSISTÊNCIA ODONTOLÓGICA AO PROGRAMA DE SAÚDE BUCAL NESTE MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>253/2021</t>
+  </si>
+  <si>
+    <t>FELIPE LEROY CORREA</t>
+  </si>
+  <si>
+    <t>24.315.907/0001-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA COM PROFISSIONAIS CIRURGIÕES DENTISTAS PARA PRESTAR ASSISTÊNCIA ODONTOLÓGICA AO PROGRAMA DE SAÚDE BUCAL NESTE MUNICÍPIO. </t>
+  </si>
+  <si>
+    <t>257/2021</t>
+  </si>
+  <si>
+    <t>159/072/2021</t>
+  </si>
+  <si>
+    <t>OTORRINOCLINIC - CENTRO NORTE M. DE OTORRIN LTDA</t>
+  </si>
+  <si>
+    <t>09.442.693/0001-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA PARA REALIZAR PROCEDIMENTOS CIRÚRGICOS DE ESPECIALIDADES EM OTORRINOLARINGOLOGIA JUNTO A SECRETARIA DE SAÚDE DESTE MUNICÍPIO. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,10 +579,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,38 +864,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -438,62 +914,914 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>45159</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45230</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45184</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
-        <v>45167</v>
+      <c r="F5" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="2">
+        <v>46022</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45631</v>
       </c>
     </row>
   </sheetData>
